--- a/data/trans_orig/P36A-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36A-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>151974</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>128274</v>
+        <v>130483</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>175831</v>
+        <v>179823</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1475287146192394</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1245224618836568</v>
+        <v>0.126666898491876</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1706876605139298</v>
+        <v>0.1745628775999541</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>99</v>
@@ -764,19 +764,19 @@
         <v>108507</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>87720</v>
+        <v>90091</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>129097</v>
+        <v>132852</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0973199148515167</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0786760343095194</v>
+        <v>0.08080277596042826</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1157870422569644</v>
+        <v>0.1191546843698556</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>243</v>
@@ -785,19 +785,19 @@
         <v>260481</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>231228</v>
+        <v>233565</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>294710</v>
+        <v>293578</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.121431665071323</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1077945145499653</v>
+        <v>0.1088839654170223</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1373886186716339</v>
+        <v>0.1368611738870474</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>209752</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>181367</v>
+        <v>183276</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>234902</v>
+        <v>240483</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2036169653832546</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.176061708792076</v>
+        <v>0.1779150633485951</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2280314229281449</v>
+        <v>0.2334490299565204</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>175</v>
@@ -835,19 +835,19 @@
         <v>192821</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>167282</v>
+        <v>167468</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>217740</v>
+        <v>218422</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1729413230069288</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1500356082132691</v>
+        <v>0.1502018346500249</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1952916820334724</v>
+        <v>0.1959027872821824</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>368</v>
@@ -856,19 +856,19 @@
         <v>402573</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>362981</v>
+        <v>366152</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>440828</v>
+        <v>445202</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.18767267349194</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1692154071077358</v>
+        <v>0.1706938108901816</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2055062898650069</v>
+        <v>0.2075454956806232</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>308881</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>278611</v>
+        <v>277502</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>338147</v>
+        <v>337964</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2998463094245564</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2704621040180979</v>
+        <v>0.2693854496309778</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3282563636275722</v>
+        <v>0.3280786809535552</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>294</v>
@@ -906,19 +906,19 @@
         <v>315646</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>285534</v>
+        <v>284429</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>345740</v>
+        <v>344660</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2831032835352507</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2560956915659846</v>
+        <v>0.2551043526015104</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3100942752587374</v>
+        <v>0.3091262359855286</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>590</v>
@@ -927,19 +927,19 @@
         <v>624527</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>585465</v>
+        <v>581445</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>671701</v>
+        <v>666553</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2911437796242692</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2729338510725735</v>
+        <v>0.2710597270445652</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3131355627164839</v>
+        <v>0.310735385146208</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>272644</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>244903</v>
+        <v>243935</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>302659</v>
+        <v>304086</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2646695092319576</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2377397986086502</v>
+        <v>0.236799657583957</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2938064606052963</v>
+        <v>0.2951917964686088</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>335</v>
@@ -977,19 +977,19 @@
         <v>361781</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>329056</v>
+        <v>332743</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>394221</v>
+        <v>393942</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3244816914993637</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2951309011711162</v>
+        <v>0.2984379584160204</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3535777091134374</v>
+        <v>0.3533272938580252</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>585</v>
@@ -998,19 +998,19 @@
         <v>634425</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>588895</v>
+        <v>592586</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>676014</v>
+        <v>678691</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2957581130508635</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.274532804736018</v>
+        <v>0.2762534080607927</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3151461088437184</v>
+        <v>0.3163941885428554</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>86880</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>69601</v>
+        <v>69511</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>106591</v>
+        <v>106753</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08433850134099193</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06756554056920863</v>
+        <v>0.0674779315340583</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1034729794437248</v>
+        <v>0.1036307647866319</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>123</v>
@@ -1048,19 +1048,19 @@
         <v>136195</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>111277</v>
+        <v>114044</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>157975</v>
+        <v>160752</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1221537871069401</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0998047091901724</v>
+        <v>0.1022862468498523</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1416877653083497</v>
+        <v>0.1441785750336846</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>205</v>
@@ -1069,19 +1069,19 @@
         <v>223075</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>196030</v>
+        <v>194001</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>257324</v>
+        <v>250997</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1039937687616043</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09138564288458971</v>
+        <v>0.09043984311621266</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1199600092928778</v>
+        <v>0.1170106839672516</v>
       </c>
     </row>
     <row r="9">
@@ -1220,19 +1220,19 @@
         <v>151497</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>129915</v>
+        <v>130408</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>176931</v>
+        <v>176403</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1569056532522497</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1345531483710237</v>
+        <v>0.1350636498700946</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1832475050761886</v>
+        <v>0.1826998632198614</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>96</v>
@@ -1241,19 +1241,19 @@
         <v>102478</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>84995</v>
+        <v>85568</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>123976</v>
+        <v>123647</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09515356060770816</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07891931413872862</v>
+        <v>0.07945160607841172</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1151145878153083</v>
+        <v>0.1148087771382427</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>235</v>
@@ -1262,19 +1262,19 @@
         <v>253976</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>219165</v>
+        <v>224238</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>282985</v>
+        <v>289634</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1243448741586007</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1073015203356591</v>
+        <v>0.1097855763560098</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1385474497613053</v>
+        <v>0.141802607832501</v>
       </c>
     </row>
     <row r="12">
@@ -1291,19 +1291,19 @@
         <v>267487</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>239546</v>
+        <v>237146</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>296452</v>
+        <v>295640</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2770362730338373</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2480979279791977</v>
+        <v>0.2456118960437013</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3070344244150101</v>
+        <v>0.3061938904682359</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>230</v>
@@ -1312,19 +1312,19 @@
         <v>244138</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>215886</v>
+        <v>215477</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>272254</v>
+        <v>273433</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2266880484967678</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2004551772876123</v>
+        <v>0.2000750188686459</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2527935011840538</v>
+        <v>0.2538887602063713</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>478</v>
@@ -1333,19 +1333,19 @@
         <v>511626</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>475046</v>
+        <v>469940</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>554844</v>
+        <v>552979</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2504885505729068</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2325790677043223</v>
+        <v>0.2300795294247864</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.271647899584867</v>
+        <v>0.2707349976665027</v>
       </c>
     </row>
     <row r="13">
@@ -1362,19 +1362,19 @@
         <v>341680</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>312309</v>
+        <v>309998</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>371961</v>
+        <v>372953</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3538771715839085</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3234583514688711</v>
+        <v>0.3210639593787105</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3852399307604573</v>
+        <v>0.3862668433137689</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>339</v>
@@ -1383,19 +1383,19 @@
         <v>366611</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>333313</v>
+        <v>333608</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>398866</v>
+        <v>395645</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3404064768997707</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.309488250683408</v>
+        <v>0.3097629385017172</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3703558083205892</v>
+        <v>0.3673650376544877</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>667</v>
@@ -1404,19 +1404,19 @@
         <v>708291</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>667179</v>
+        <v>666190</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>755821</v>
+        <v>752025</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3467743140925361</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3266461966921727</v>
+        <v>0.3261619632051819</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.370044844586682</v>
+        <v>0.3681865719954017</v>
       </c>
     </row>
     <row r="14">
@@ -1433,19 +1433,19 @@
         <v>156686</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>134464</v>
+        <v>133542</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>181043</v>
+        <v>179683</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1622797026563315</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1392641860262178</v>
+        <v>0.1383091976929169</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1875054606310079</v>
+        <v>0.1860973342490765</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>270</v>
@@ -1454,19 +1454,19 @@
         <v>290843</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>261344</v>
+        <v>260381</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>323074</v>
+        <v>320819</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2700538438841323</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2426633582718623</v>
+        <v>0.2417698458374272</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2999811097200841</v>
+        <v>0.2978874131653093</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>420</v>
@@ -1475,19 +1475,19 @@
         <v>447529</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>408916</v>
+        <v>413173</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>489028</v>
+        <v>485488</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2191070886483485</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2002026707242821</v>
+        <v>0.2022865078099988</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2394246460703126</v>
+        <v>0.2376914135548708</v>
       </c>
     </row>
     <row r="15">
@@ -1504,19 +1504,19 @@
         <v>48181</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>36110</v>
+        <v>35716</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>63900</v>
+        <v>64119</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04990119947367296</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03739890264312906</v>
+        <v>0.0369909253417709</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06618160998210361</v>
+        <v>0.06640798968456936</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>69</v>
@@ -1525,19 +1525,19 @@
         <v>72909</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>56652</v>
+        <v>57400</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>92152</v>
+        <v>91753</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06769807011162104</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.052602227298673</v>
+        <v>0.0532971690384834</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08556540722384844</v>
+        <v>0.08519511580617735</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>117</v>
@@ -1546,19 +1546,19 @@
         <v>121091</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>101098</v>
+        <v>102205</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>146604</v>
+        <v>144971</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05928517252760797</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04949711394973201</v>
+        <v>0.0500386436554725</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07177651565706961</v>
+        <v>0.0709769726261701</v>
       </c>
     </row>
     <row r="16">
@@ -1697,19 +1697,19 @@
         <v>119645</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>99702</v>
+        <v>100797</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>142184</v>
+        <v>141318</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1379304944781172</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1149393478626438</v>
+        <v>0.1162025792524187</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1639143712532987</v>
+        <v>0.1629162010625973</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>93</v>
@@ -1718,19 +1718,19 @@
         <v>95840</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>78993</v>
+        <v>78808</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>115727</v>
+        <v>117081</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1115408597858456</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09193381531045988</v>
+        <v>0.09171819105277051</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1346850510221855</v>
+        <v>0.1362606999682148</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>205</v>
@@ -1739,19 +1739,19 @@
         <v>215485</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>190153</v>
+        <v>186337</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>243973</v>
+        <v>245016</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1247982554176771</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1101272534951931</v>
+        <v>0.1079173360017796</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1412967734801339</v>
+        <v>0.1419010515693152</v>
       </c>
     </row>
     <row r="19">
@@ -1768,19 +1768,19 @@
         <v>252383</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>221165</v>
+        <v>227216</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>280926</v>
+        <v>281540</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2909556158126376</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2549660930143147</v>
+        <v>0.2619423406992195</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3238606579507352</v>
+        <v>0.3245685935969682</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>218</v>
@@ -1789,19 +1789,19 @@
         <v>232279</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>205740</v>
+        <v>206216</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>258763</v>
+        <v>261487</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2703306810711955</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2394449998190021</v>
+        <v>0.2399980525444212</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3011541585656582</v>
+        <v>0.3043239204508414</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>454</v>
@@ -1810,19 +1810,19 @@
         <v>484662</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>445401</v>
+        <v>449311</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>526204</v>
+        <v>524212</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2806920567755769</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2579542510047669</v>
+        <v>0.2602182433498628</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3047511640765187</v>
+        <v>0.3035972500099728</v>
       </c>
     </row>
     <row r="20">
@@ -1839,19 +1839,19 @@
         <v>311831</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>284083</v>
+        <v>285042</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>343127</v>
+        <v>341111</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.359489306799622</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3274999622553127</v>
+        <v>0.3286060524972759</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3955683962020348</v>
+        <v>0.3932437470506121</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>272</v>
@@ -1860,19 +1860,19 @@
         <v>294228</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>266888</v>
+        <v>265747</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>324934</v>
+        <v>323233</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3424280095072035</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3106093440934916</v>
+        <v>0.3092820281787181</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3781649050820897</v>
+        <v>0.3761849876380521</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>567</v>
@@ -1881,19 +1881,19 @@
         <v>606059</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>564025</v>
+        <v>569381</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>647666</v>
+        <v>647787</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3509991159600007</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3266554239270218</v>
+        <v>0.3297572336711924</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3750959763906042</v>
+        <v>0.3751658865922768</v>
       </c>
     </row>
     <row r="21">
@@ -1910,19 +1910,19 @@
         <v>161103</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>139155</v>
+        <v>137802</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>186709</v>
+        <v>185029</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1857245062402538</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1604226510367996</v>
+        <v>0.1588622311726993</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.215244377098579</v>
+        <v>0.2133076500856438</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>177</v>
@@ -1931,19 +1931,19 @@
         <v>189255</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>166704</v>
+        <v>166767</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>219091</v>
+        <v>215853</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2202591603742808</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.194014008043313</v>
+        <v>0.1940872532034429</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2549820746651929</v>
+        <v>0.2512136629649553</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>324</v>
@@ -1952,19 +1952,19 @@
         <v>350358</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>318547</v>
+        <v>315208</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>385406</v>
+        <v>381921</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2029099405687735</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.184486702414964</v>
+        <v>0.1825527664114183</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2232081574081436</v>
+        <v>0.2211893155751742</v>
       </c>
     </row>
     <row r="22">
@@ -1981,19 +1981,19 @@
         <v>22466</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13846</v>
+        <v>14776</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33628</v>
+        <v>33673</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02590007666936941</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01596174672030695</v>
+        <v>0.01703419670387539</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03876726598116593</v>
+        <v>0.03881890661138046</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>45</v>
@@ -2002,19 +2002,19 @@
         <v>47637</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35553</v>
+        <v>36680</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>63276</v>
+        <v>62996</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05544128926147456</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04137776182154835</v>
+        <v>0.04268867355266236</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07364143013814614</v>
+        <v>0.07331556178466465</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>67</v>
@@ -2023,19 +2023,19 @@
         <v>70104</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>54917</v>
+        <v>55081</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>89056</v>
+        <v>88120</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04060063127797184</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03180501563804639</v>
+        <v>0.0319001120694451</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05157676397280598</v>
+        <v>0.05103478635949346</v>
       </c>
     </row>
     <row r="23">
@@ -2174,19 +2174,19 @@
         <v>114134</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>96295</v>
+        <v>95814</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>135848</v>
+        <v>136709</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2285742902790455</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1928478766492678</v>
+        <v>0.1918848747182532</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2720594271179909</v>
+        <v>0.273783130494101</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>60</v>
@@ -2195,19 +2195,19 @@
         <v>62103</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>48124</v>
+        <v>47518</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>77099</v>
+        <v>77905</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1392704158013286</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1079209357366271</v>
+        <v>0.1065636007926108</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1728997132728226</v>
+        <v>0.1747090308695703</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>162</v>
@@ -2216,19 +2216,19 @@
         <v>176237</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>151136</v>
+        <v>152808</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>204465</v>
+        <v>203103</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1864456623254777</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1598902581558124</v>
+        <v>0.1616595479212752</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2163090576870497</v>
+        <v>0.2148680981491761</v>
       </c>
     </row>
     <row r="26">
@@ -2245,19 +2245,19 @@
         <v>131985</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>113474</v>
+        <v>111959</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>151509</v>
+        <v>155176</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2643222443774565</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2272506756685612</v>
+        <v>0.2242167583963185</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3034235511543636</v>
+        <v>0.3107680521876345</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>103</v>
@@ -2266,19 +2266,19 @@
         <v>118920</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>100290</v>
+        <v>101203</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>138370</v>
+        <v>140765</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2666875161742636</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2249077796570678</v>
+        <v>0.2269561352145844</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3103055277662743</v>
+        <v>0.3156757373107882</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>228</v>
@@ -2287,19 +2287,19 @@
         <v>250905</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>223018</v>
+        <v>222758</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>280092</v>
+        <v>278813</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2654380487713814</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2359358187873528</v>
+        <v>0.2356612390755635</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2963157357003887</v>
+        <v>0.2949626829067458</v>
       </c>
     </row>
     <row r="27">
@@ -2316,19 +2316,19 @@
         <v>144641</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>125519</v>
+        <v>124452</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>168199</v>
+        <v>166219</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2896691857606059</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2513743070044051</v>
+        <v>0.2492372977249147</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3368484708071955</v>
+        <v>0.3328834090839586</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>126</v>
@@ -2337,19 +2337,19 @@
         <v>135139</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>116714</v>
+        <v>116567</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>155830</v>
+        <v>157903</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3030590454873595</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2617411395993219</v>
+        <v>0.2614104126559438</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.349460620307255</v>
+        <v>0.3541101632883656</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>255</v>
@@ -2358,19 +2358,19 @@
         <v>279780</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>251471</v>
+        <v>250983</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>310311</v>
+        <v>311425</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2959857808924287</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2660372119671794</v>
+        <v>0.2655208212670191</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3282854667442759</v>
+        <v>0.3294638397780081</v>
       </c>
     </row>
     <row r="28">
@@ -2387,19 +2387,19 @@
         <v>89578</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>73497</v>
+        <v>72786</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>108913</v>
+        <v>109102</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1793959971846233</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1471907787431187</v>
+        <v>0.1457676282175091</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2181171978347045</v>
+        <v>0.2184951267486714</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>86</v>
@@ -2408,19 +2408,19 @@
         <v>94909</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>77460</v>
+        <v>77833</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>116716</v>
+        <v>114359</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2128416839407839</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1737097370359697</v>
+        <v>0.1745475237250157</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2617442723858894</v>
+        <v>0.2564591850176128</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>168</v>
@@ -2429,19 +2429,19 @@
         <v>184487</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>159280</v>
+        <v>160513</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>211090</v>
+        <v>210745</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1951738220801539</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.168505953883277</v>
+        <v>0.1698109262646705</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2233177690262085</v>
+        <v>0.2229524383928624</v>
       </c>
     </row>
     <row r="29">
@@ -2458,19 +2458,19 @@
         <v>18994</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12010</v>
+        <v>12776</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>29381</v>
+        <v>28813</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03803828239826879</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02405310930931345</v>
+        <v>0.02558556348979182</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05884036311744808</v>
+        <v>0.05770245171909481</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>31</v>
@@ -2479,19 +2479,19 @@
         <v>34844</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>24819</v>
+        <v>24039</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>49040</v>
+        <v>48672</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07814133859626445</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05565945122383396</v>
+        <v>0.0539100835636927</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1099756743114078</v>
+        <v>0.1091510161696747</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>50</v>
@@ -2500,19 +2500,19 @@
         <v>53838</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>40914</v>
+        <v>39768</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>69051</v>
+        <v>68744</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05695668593055832</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04328384668928702</v>
+        <v>0.04207201515237385</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07305045344892869</v>
+        <v>0.07272585665308291</v>
       </c>
     </row>
     <row r="30">
@@ -2651,19 +2651,19 @@
         <v>537251</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>494227</v>
+        <v>490652</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>583237</v>
+        <v>581391</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.159780766981087</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1469854995003919</v>
+        <v>0.145922155980428</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1734573870799411</v>
+        <v>0.1729082340103237</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>348</v>
@@ -2672,19 +2672,19 @@
         <v>368928</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>335936</v>
+        <v>333979</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>410689</v>
+        <v>410160</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1054959942900885</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09606161775726529</v>
+        <v>0.09550202150614942</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1174376661669932</v>
+        <v>0.1172864080811322</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>845</v>
@@ -2693,19 +2693,19 @@
         <v>906179</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>850596</v>
+        <v>846827</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>962238</v>
+        <v>966417</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1321055392382209</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1240025070790295</v>
+        <v>0.1234530311058484</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1402780211964584</v>
+        <v>0.1408872357182234</v>
       </c>
     </row>
     <row r="33">
@@ -2722,19 +2722,19 @@
         <v>861607</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>807782</v>
+        <v>811065</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>913560</v>
+        <v>916532</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2562459072244077</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2402381548015002</v>
+        <v>0.2412144821142697</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2716969047817471</v>
+        <v>0.2725807764129223</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>726</v>
@@ -2743,19 +2743,19 @@
         <v>788158</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>740557</v>
+        <v>735565</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>835293</v>
+        <v>842027</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2253757982834391</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2117641516254037</v>
+        <v>0.210336793699629</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2388542775096307</v>
+        <v>0.2407798268557507</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1528</v>
@@ -2764,19 +2764,19 @@
         <v>1649765</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1575023</v>
+        <v>1579348</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1731364</v>
+        <v>1727558</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2405078419615857</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2296116978385508</v>
+        <v>0.230242244484924</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2524035573194333</v>
+        <v>0.2518487463169426</v>
       </c>
     </row>
     <row r="34">
@@ -2793,19 +2793,19 @@
         <v>1107033</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1048338</v>
+        <v>1047855</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1159932</v>
+        <v>1158264</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3292366577715027</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3117805488402335</v>
+        <v>0.3116368765722237</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3449692172600232</v>
+        <v>0.3444728730287563</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1031</v>
@@ -2814,19 +2814,19 @@
         <v>1111623</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1056945</v>
+        <v>1054892</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1169210</v>
+        <v>1167982</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3178714255066171</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3022360693114522</v>
+        <v>0.3016491288329699</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3343384107832845</v>
+        <v>0.3339875046311325</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2079</v>
@@ -2835,19 +2835,19 @@
         <v>2218656</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2147353</v>
+        <v>2132633</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2295897</v>
+        <v>2293845</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3234424842733159</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.313047662820466</v>
+        <v>0.3109018242447352</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3347029200667815</v>
+        <v>0.3344037123630617</v>
       </c>
     </row>
     <row r="35">
@@ -2864,19 +2864,19 @@
         <v>680011</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>635712</v>
+        <v>630692</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>732565</v>
+        <v>724724</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2022384857714875</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1890635229829551</v>
+        <v>0.1875707393858796</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.217868278404024</v>
+        <v>0.2155363693256107</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>868</v>
@@ -2885,19 +2885,19 @@
         <v>936788</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>882391</v>
+        <v>886353</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>994088</v>
+        <v>993490</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2678768822967394</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.252322044109567</v>
+        <v>0.253454953569735</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2842618826097455</v>
+        <v>0.2840910879273805</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1497</v>
@@ -2906,19 +2906,19 @@
         <v>1616799</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1547800</v>
+        <v>1546937</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1686417</v>
+        <v>1698860</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2357019688527037</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2256429993471693</v>
+        <v>0.2255171860256444</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2458510304333373</v>
+        <v>0.2476650258906</v>
       </c>
     </row>
     <row r="36">
@@ -2935,19 +2935,19 @@
         <v>176521</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>152690</v>
+        <v>150213</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>203268</v>
+        <v>203001</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05249818225151506</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04541056582382214</v>
+        <v>0.04467389148656856</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06045282946164534</v>
+        <v>0.06037349525895995</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>268</v>
@@ -2956,19 +2956,19 @@
         <v>291587</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>258763</v>
+        <v>262422</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>326671</v>
+        <v>331880</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.08337989962311596</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.07399404383512818</v>
+        <v>0.07504021660743995</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.09341228974865325</v>
+        <v>0.09490186413696741</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>439</v>
@@ -2977,19 +2977,19 @@
         <v>468108</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>424282</v>
+        <v>427550</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>510694</v>
+        <v>510055</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.06824216567417379</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.06185309305723675</v>
+        <v>0.06232951203910001</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07445051020133027</v>
+        <v>0.07435741615067706</v>
       </c>
     </row>
     <row r="37">
@@ -3368,19 +3368,19 @@
         <v>193185</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>169409</v>
+        <v>168256</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>219553</v>
+        <v>221697</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1740124246186338</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1525966119006305</v>
+        <v>0.1515580637608752</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1977637382200208</v>
+        <v>0.1996951804776778</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>155</v>
@@ -3389,19 +3389,19 @@
         <v>163011</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>138292</v>
+        <v>138687</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>187314</v>
+        <v>188410</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1314715657640442</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1115356451186305</v>
+        <v>0.111853740773978</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1510727126342039</v>
+        <v>0.1519567840398253</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>335</v>
@@ -3410,19 +3410,19 @@
         <v>356195</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>322584</v>
+        <v>320487</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>399160</v>
+        <v>392074</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.151567942264042</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.137265533003359</v>
+        <v>0.1363731841382475</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1698503631821027</v>
+        <v>0.1668348013098696</v>
       </c>
     </row>
     <row r="5">
@@ -3439,19 +3439,19 @@
         <v>274339</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>247193</v>
+        <v>245887</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>300476</v>
+        <v>305211</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.247112305290997</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2226609516266109</v>
+        <v>0.2214839159026806</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2706559674241689</v>
+        <v>0.2749208565938499</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>296</v>
@@ -3460,19 +3460,19 @@
         <v>313423</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>282415</v>
+        <v>284784</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>344198</v>
+        <v>344016</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2527826980386685</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2277740871245026</v>
+        <v>0.2296841707098881</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2776026352080104</v>
+        <v>0.2774558537492848</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>555</v>
@@ -3481,19 +3481,19 @@
         <v>587762</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>543376</v>
+        <v>547476</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>630336</v>
+        <v>635622</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2501039945374163</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2312169584369877</v>
+        <v>0.2329615098811911</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2682201656823124</v>
+        <v>0.2704692086764615</v>
       </c>
     </row>
     <row r="6">
@@ -3510,19 +3510,19 @@
         <v>378696</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>347253</v>
+        <v>346371</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>412694</v>
+        <v>411759</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3411129941842843</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.312790020557241</v>
+        <v>0.3119962402682317</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3717370749049453</v>
+        <v>0.3708942429667261</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>411</v>
@@ -3531,19 +3531,19 @@
         <v>434052</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>402322</v>
+        <v>400995</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>470130</v>
+        <v>468885</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3500724284674661</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3244815375671024</v>
+        <v>0.3234109421673203</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.379169576310849</v>
+        <v>0.378165784078723</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>769</v>
@@ -3552,19 +3552,19 @@
         <v>812748</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>764635</v>
+        <v>762412</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>859371</v>
+        <v>858459</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3458399759634568</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.325366906305968</v>
+        <v>0.3244208149033765</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.365678768223878</v>
+        <v>0.3652905589974749</v>
       </c>
     </row>
     <row r="7">
@@ -3581,19 +3581,19 @@
         <v>213453</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>184923</v>
+        <v>188216</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>238744</v>
+        <v>240116</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1922693208122631</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1665704181113835</v>
+        <v>0.1695370339919922</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2150503856647745</v>
+        <v>0.2162858918014018</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>249</v>
@@ -3602,19 +3602,19 @@
         <v>266640</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>238527</v>
+        <v>237437</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>295580</v>
+        <v>296119</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2150509785151528</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1923767713408782</v>
+        <v>0.1914982597755846</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.23839121467806</v>
+        <v>0.2388262652844566</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>453</v>
@@ -3623,19 +3623,19 @@
         <v>480093</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>442451</v>
+        <v>441007</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>525380</v>
+        <v>522197</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2042888833713695</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1882713184838425</v>
+        <v>0.1876566930794643</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2235591974962564</v>
+        <v>0.2222049603618616</v>
       </c>
     </row>
     <row r="8">
@@ -3652,19 +3652,19 @@
         <v>50505</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>37351</v>
+        <v>38026</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>65122</v>
+        <v>66474</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04549295509382194</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03364412429123653</v>
+        <v>0.03425222295463035</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05865865673118104</v>
+        <v>0.05987728219096467</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>59</v>
@@ -3673,19 +3673,19 @@
         <v>62766</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>47823</v>
+        <v>49521</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>79360</v>
+        <v>80877</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05062232921466853</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03857060717684653</v>
+        <v>0.03994010168949064</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0640057835387582</v>
+        <v>0.0652294117348218</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>108</v>
@@ -3694,19 +3694,19 @@
         <v>113272</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>94357</v>
+        <v>92443</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>135552</v>
+        <v>135328</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04819920386371532</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04015051902000736</v>
+        <v>0.03933608553926425</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05768011950863162</v>
+        <v>0.05758454202093383</v>
       </c>
     </row>
     <row r="9">
@@ -3845,19 +3845,19 @@
         <v>142466</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>122122</v>
+        <v>121222</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>165932</v>
+        <v>169602</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1599925764074119</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1371466949307579</v>
+        <v>0.1361352187020601</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1863458535895108</v>
+        <v>0.1904680177891292</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>94</v>
@@ -3866,19 +3866,19 @@
         <v>96738</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>78837</v>
+        <v>79188</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>116755</v>
+        <v>117414</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09813153797376079</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07997294608361639</v>
+        <v>0.08032949462947148</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1184370562138591</v>
+        <v>0.1191062791315236</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>229</v>
@@ -3887,19 +3887,19 @@
         <v>239203</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>209882</v>
+        <v>212484</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>267857</v>
+        <v>270127</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1274902694652885</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.111862614188246</v>
+        <v>0.1132495296567466</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1427621403379216</v>
+        <v>0.1439721350830144</v>
       </c>
     </row>
     <row r="12">
@@ -3916,19 +3916,19 @@
         <v>240565</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>213643</v>
+        <v>214519</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>266017</v>
+        <v>268865</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2701603334980751</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2399265249866656</v>
+        <v>0.2409109784798534</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2987437765975667</v>
+        <v>0.3019420631392853</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>256</v>
@@ -3937,19 +3937,19 @@
         <v>270620</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>245132</v>
+        <v>243042</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>301858</v>
+        <v>299836</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2745191447619966</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.248663670085836</v>
+        <v>0.2465434815210479</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.306207564836717</v>
+        <v>0.3041560587562653</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>489</v>
@@ -3958,19 +3958,19 @@
         <v>511184</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>473688</v>
+        <v>475171</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>551414</v>
+        <v>549958</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2724504893892458</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2524654866347913</v>
+        <v>0.2532560889947598</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2938920273103485</v>
+        <v>0.2931157830377915</v>
       </c>
     </row>
     <row r="13">
@@ -3987,19 +3987,19 @@
         <v>315925</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>287975</v>
+        <v>285927</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>343810</v>
+        <v>346041</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.35479223811101</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3234035516811122</v>
+        <v>0.321103797261073</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3861077187308871</v>
+        <v>0.3886127152611871</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>353</v>
@@ -4008,19 +4008,19 @@
         <v>371197</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>340396</v>
+        <v>342073</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>403186</v>
+        <v>401479</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3765456179920666</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3453005234785113</v>
+        <v>0.3470020683651478</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4089953806929176</v>
+        <v>0.4072642814536846</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>661</v>
@@ -4029,19 +4029,19 @@
         <v>687122</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>641966</v>
+        <v>648538</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>731142</v>
+        <v>727802</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3662216458258682</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.342154481250824</v>
+        <v>0.3456569738635203</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3896832787274755</v>
+        <v>0.3879031355659077</v>
       </c>
     </row>
     <row r="14">
@@ -4058,19 +4058,19 @@
         <v>155640</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>135120</v>
+        <v>134842</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>177874</v>
+        <v>179049</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1747873852010925</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1517429418322918</v>
+        <v>0.15143059960755</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1997567641322824</v>
+        <v>0.2010764224510151</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>185</v>
@@ -4079,19 +4079,19 @@
         <v>197289</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>171754</v>
+        <v>173563</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>224746</v>
+        <v>225118</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2001313407480304</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1742283462624554</v>
+        <v>0.1760635086672346</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2279844374145751</v>
+        <v>0.2283621148278056</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>335</v>
@@ -4100,19 +4100,19 @@
         <v>352928</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>319122</v>
+        <v>321156</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>386634</v>
+        <v>389655</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.188103311399092</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1700851324954867</v>
+        <v>0.1711696270213608</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2060678630715363</v>
+        <v>0.2076776346260565</v>
       </c>
     </row>
     <row r="15">
@@ -4129,19 +4129,19 @@
         <v>35856</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>26578</v>
+        <v>25275</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>49483</v>
+        <v>48621</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04026746678241046</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02984745067581485</v>
+        <v>0.02838490454610527</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05557074810569065</v>
+        <v>0.05460244012347245</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>43</v>
@@ -4150,19 +4150,19 @@
         <v>49953</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>36916</v>
+        <v>36207</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>66507</v>
+        <v>66119</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05067235852414567</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03744799144523586</v>
+        <v>0.0367282965257528</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.06746506469494359</v>
+        <v>0.06707199141111442</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>80</v>
@@ -4171,19 +4171,19 @@
         <v>85809</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>70692</v>
+        <v>69020</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>107011</v>
+        <v>106853</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04573428392050555</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0376775336073552</v>
+        <v>0.03678593954210216</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05703463117627393</v>
+        <v>0.05695012576183382</v>
       </c>
     </row>
     <row r="16">
@@ -4322,19 +4322,19 @@
         <v>119440</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>101150</v>
+        <v>97181</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>143075</v>
+        <v>140407</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1491373827907907</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1262999327041948</v>
+        <v>0.1213441022352223</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1786480988314699</v>
+        <v>0.1753165944856274</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>70</v>
@@ -4343,19 +4343,19 @@
         <v>73374</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>58780</v>
+        <v>57990</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>92448</v>
+        <v>91050</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09638939445196625</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0772173487450577</v>
+        <v>0.07618023525134578</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1214465743798799</v>
+        <v>0.1196098170509026</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>181</v>
@@ -4364,19 +4364,19 @@
         <v>192814</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>168192</v>
+        <v>167391</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>220142</v>
+        <v>219649</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1234328437785435</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1076704679137249</v>
+        <v>0.1071574321390084</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.14092711525967</v>
+        <v>0.1406114787846025</v>
       </c>
     </row>
     <row r="19">
@@ -4393,19 +4393,19 @@
         <v>246855</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>223117</v>
+        <v>219255</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>276535</v>
+        <v>271173</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3082316547483788</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2785914257144894</v>
+        <v>0.2737692625836307</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3452917085184229</v>
+        <v>0.3385961416201961</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>240</v>
@@ -4414,19 +4414,19 @@
         <v>252194</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>224683</v>
+        <v>226768</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>279739</v>
+        <v>278391</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3313010584965481</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.295160130679741</v>
+        <v>0.2978986208412192</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3674853738920262</v>
+        <v>0.3657154693477841</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>477</v>
@@ -4435,19 +4435,19 @@
         <v>499049</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>462347</v>
+        <v>460043</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>536793</v>
+        <v>537723</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3194735695077638</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2959781728914866</v>
+        <v>0.2945029248956033</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3436354957346577</v>
+        <v>0.3442312362419966</v>
       </c>
     </row>
     <row r="20">
@@ -4464,19 +4464,19 @@
         <v>300044</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>272331</v>
+        <v>274881</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>326597</v>
+        <v>330392</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3746446441802802</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3400415520936992</v>
+        <v>0.3432253102466575</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4078006181639832</v>
+        <v>0.4125381670428326</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>259</v>
@@ -4485,19 +4485,19 @@
         <v>273884</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>248918</v>
+        <v>248620</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>301982</v>
+        <v>299613</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3597941816083784</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3269969921325213</v>
+        <v>0.3266061996460246</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3967057354995703</v>
+        <v>0.3935937874131187</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>549</v>
@@ -4506,19 +4506,19 @@
         <v>573927</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>537754</v>
+        <v>532699</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>615439</v>
+        <v>610397</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3674078886839875</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3442509514718869</v>
+        <v>0.3410145789712155</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.393982059110017</v>
+        <v>0.3907546255784675</v>
       </c>
     </row>
     <row r="21">
@@ -4535,19 +4535,19 @@
         <v>113859</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>93423</v>
+        <v>94479</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>133513</v>
+        <v>135716</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1421686226629343</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1166509492286274</v>
+        <v>0.1179691921043187</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.166708630177749</v>
+        <v>0.1694600995371692</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>120</v>
@@ -4556,19 +4556,19 @@
         <v>128510</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>108172</v>
+        <v>108156</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>149842</v>
+        <v>151623</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1688207825502489</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1421027041080642</v>
+        <v>0.1420819112891052</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.196843030106852</v>
+        <v>0.1991826586985988</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>227</v>
@@ -4577,19 +4577,19 @@
         <v>242370</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>214007</v>
+        <v>214857</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>272980</v>
+        <v>273035</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1551564446663733</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1369996358482062</v>
+        <v>0.1375435440166855</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1747523646337308</v>
+        <v>0.1747870302906666</v>
       </c>
     </row>
     <row r="22">
@@ -4606,19 +4606,19 @@
         <v>20677</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12998</v>
+        <v>13117</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31199</v>
+        <v>31658</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02581769561761615</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01623005908647687</v>
+        <v>0.01637791688968461</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03895627140828515</v>
+        <v>0.03952920953533823</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -4627,19 +4627,19 @@
         <v>33261</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23168</v>
+        <v>22966</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48420</v>
+        <v>47945</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04369458289285833</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03043506365142009</v>
+        <v>0.03016942161448566</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06360752549800162</v>
+        <v>0.06298359861111258</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>49</v>
@@ -4648,19 +4648,19 @@
         <v>53938</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>39432</v>
+        <v>41123</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>70525</v>
+        <v>71177</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03452925336333186</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02524318896867613</v>
+        <v>0.02632552458267662</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04514733814326667</v>
+        <v>0.04556486843703794</v>
       </c>
     </row>
     <row r="23">
@@ -4799,19 +4799,19 @@
         <v>106805</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>89485</v>
+        <v>87982</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>127010</v>
+        <v>128235</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2158368856567471</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1808342686699735</v>
+        <v>0.1777981786562401</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2566670090627466</v>
+        <v>0.2591421330645065</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>77</v>
@@ -4820,19 +4820,19 @@
         <v>82357</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>66889</v>
+        <v>68337</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>101917</v>
+        <v>101144</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1710019877661445</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1388846544141703</v>
+        <v>0.1418915299028893</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2116139627751864</v>
+        <v>0.2100098224721999</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>171</v>
@@ -4841,19 +4841,19 @@
         <v>189163</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>165465</v>
+        <v>163492</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>215694</v>
+        <v>215575</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1937231073866335</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1694540856549063</v>
+        <v>0.1674329415177904</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2208939797980903</v>
+        <v>0.2207718281401333</v>
       </c>
     </row>
     <row r="26">
@@ -4870,19 +4870,19 @@
         <v>144142</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>123463</v>
+        <v>123961</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>165691</v>
+        <v>166236</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2912890268733984</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2494987165427091</v>
+        <v>0.2505047380262853</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3348362589471784</v>
+        <v>0.3359360250822151</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>114</v>
@@ -4891,19 +4891,19 @@
         <v>122837</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>104641</v>
+        <v>104479</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>144761</v>
+        <v>143546</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2550521581550568</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2172714318163383</v>
+        <v>0.216933471496006</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.300574290281462</v>
+        <v>0.2980506410818229</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>248</v>
@@ -4912,19 +4912,19 @@
         <v>266980</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>237002</v>
+        <v>240699</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>294020</v>
+        <v>296913</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.273416027987667</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2427155001004403</v>
+        <v>0.2465013473227249</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3011081419504959</v>
+        <v>0.3040710411142554</v>
       </c>
     </row>
     <row r="27">
@@ -4941,19 +4941,19 @@
         <v>143029</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>123981</v>
+        <v>123497</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>164962</v>
+        <v>162985</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2890397589744891</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2505467705410067</v>
+        <v>0.2495670751553236</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3333619931004932</v>
+        <v>0.3293664906756417</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>155</v>
@@ -4962,19 +4962,19 @@
         <v>165663</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>143639</v>
+        <v>147879</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>187000</v>
+        <v>188267</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3439724114415458</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2982430455016053</v>
+        <v>0.3070479381998248</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3882754760449556</v>
+        <v>0.3909063161886621</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>292</v>
@@ -4983,19 +4983,19 @@
         <v>308692</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>280070</v>
+        <v>280580</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>338767</v>
+        <v>337632</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3161340215600702</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2868221772115582</v>
+        <v>0.2873436464655167</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.346934013031261</v>
+        <v>0.345771846666974</v>
       </c>
     </row>
     <row r="28">
@@ -5012,19 +5012,19 @@
         <v>76608</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>60511</v>
+        <v>61313</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>94285</v>
+        <v>96249</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1548127631945056</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1222828726996105</v>
+        <v>0.123903867280745</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1905358988821361</v>
+        <v>0.1945031659378387</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>75</v>
@@ -5033,19 +5033,19 @@
         <v>80773</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>65264</v>
+        <v>63719</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>100388</v>
+        <v>97428</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1677116000405935</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1355096061127094</v>
+        <v>0.1323017986361209</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2084394732923119</v>
+        <v>0.2022946089629849</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>146</v>
@@ -5054,19 +5054,19 @@
         <v>157381</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>134986</v>
+        <v>136636</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>182658</v>
+        <v>179052</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1611748166701877</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1382406142471614</v>
+        <v>0.1399298620811827</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.187061325040165</v>
+        <v>0.1833688186500829</v>
       </c>
     </row>
     <row r="29">
@@ -5083,19 +5083,19 @@
         <v>24258</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>16153</v>
+        <v>16562</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>36359</v>
+        <v>35690</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04902156530085972</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03264280971885009</v>
+        <v>0.03346978366398338</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07347605171268137</v>
+        <v>0.07212301981047861</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>27</v>
@@ -5104,19 +5104,19 @@
         <v>29986</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>20625</v>
+        <v>20376</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>42191</v>
+        <v>41837</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06226184259665943</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04282488005524399</v>
+        <v>0.04230782139578684</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08760401969329194</v>
+        <v>0.08686850406878867</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>51</v>
@@ -5125,19 +5125,19 @@
         <v>54244</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>41608</v>
+        <v>40146</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>71202</v>
+        <v>69372</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05555202639544168</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04261115687099942</v>
+        <v>0.04111389512548073</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0729187686438565</v>
+        <v>0.07104447972860824</v>
       </c>
     </row>
     <row r="30">
@@ -5276,19 +5276,19 @@
         <v>561896</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>521085</v>
+        <v>514889</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>607658</v>
+        <v>606132</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1704602419044244</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1580795757791708</v>
+        <v>0.1561997393198123</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1843427017715524</v>
+        <v>0.1838797729886113</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>396</v>
@@ -5297,19 +5297,19 @@
         <v>415480</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>379448</v>
+        <v>380146</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>459089</v>
+        <v>453233</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1197855287917286</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1093973806799457</v>
+        <v>0.1095986901910269</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1323585126984846</v>
+        <v>0.1306701641743493</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>916</v>
@@ -5318,19 +5318,19 @@
         <v>977376</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>923875</v>
+        <v>923738</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1034087</v>
+        <v>1037989</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1444779897157965</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1365693673097474</v>
+        <v>0.1365491502158966</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1528612066593103</v>
+        <v>0.1534379130060435</v>
       </c>
     </row>
     <row r="33">
@@ -5347,19 +5347,19 @@
         <v>905901</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>854523</v>
+        <v>854706</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>962080</v>
+        <v>962621</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2748195380514585</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2592332421435648</v>
+        <v>0.2592888618388622</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2918625342465064</v>
+        <v>0.2920266899070905</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>906</v>
@@ -5368,19 +5368,19 @@
         <v>959075</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>905634</v>
+        <v>907980</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1012593</v>
+        <v>1013994</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2765076710329714</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2611003630075925</v>
+        <v>0.2617767215351565</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2919373756220119</v>
+        <v>0.2923413080900219</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1769</v>
@@ -5389,19 +5389,19 @@
         <v>1864976</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1783004</v>
+        <v>1793948</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1936128</v>
+        <v>1944009</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2756850880301247</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2635678931187901</v>
+        <v>0.265185668836986</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.286202937290211</v>
+        <v>0.2873680254176771</v>
       </c>
     </row>
     <row r="34">
@@ -5418,19 +5418,19 @@
         <v>1137694</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1083399</v>
+        <v>1084639</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1195746</v>
+        <v>1195784</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3451378304963642</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.328666410532191</v>
+        <v>0.3290428065624398</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3627486761966183</v>
+        <v>0.3627603078020887</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1178</v>
@@ -5439,19 +5439,19 @@
         <v>1244796</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1192409</v>
+        <v>1184658</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1306663</v>
+        <v>1302727</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3588830001674763</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3437794701176548</v>
+        <v>0.3415448821650646</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3767196861398466</v>
+        <v>0.3755847818860826</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2271</v>
@@ -5460,19 +5460,19 @@
         <v>2382490</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2306159</v>
+        <v>2299036</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2463221</v>
+        <v>2456476</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3521853388655993</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3409018080588657</v>
+        <v>0.3398489545062315</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3641190406318568</v>
+        <v>0.3631219765267552</v>
       </c>
     </row>
     <row r="35">
@@ -5489,19 +5489,19 @@
         <v>559560</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>518237</v>
+        <v>515943</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>604275</v>
+        <v>604778</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.169751566963801</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1572155282743795</v>
+        <v>0.1565196131394881</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1833164264857702</v>
+        <v>0.1834690687796059</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>629</v>
@@ -5510,19 +5510,19 @@
         <v>673212</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>625567</v>
+        <v>629390</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>718287</v>
+        <v>729415</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1940914731841867</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1803549903337501</v>
+        <v>0.1814572037030841</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2070868108684182</v>
+        <v>0.2102950929996795</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1161</v>
@@ -5531,19 +5531,19 @@
         <v>1232772</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1164662</v>
+        <v>1169710</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1296164</v>
+        <v>1298264</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1822312741554175</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1721630609019401</v>
+        <v>0.1729092800156196</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1916020011621117</v>
+        <v>0.1919123891365858</v>
       </c>
     </row>
     <row r="36">
@@ -5560,19 +5560,19 @@
         <v>131296</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>111176</v>
+        <v>110450</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>156036</v>
+        <v>155071</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03983082258395195</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03372689154924211</v>
+        <v>0.03350664117919995</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04733608046641025</v>
+        <v>0.04704314594848513</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>158</v>
@@ -5581,19 +5581,19 @@
         <v>175967</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>149968</v>
+        <v>150799</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>204505</v>
+        <v>211033</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.05073232682363703</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.04323664908664701</v>
+        <v>0.04347626260383557</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05896020547664025</v>
+        <v>0.06084236030463995</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>288</v>
@@ -5602,19 +5602,19 @@
         <v>307263</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>274825</v>
+        <v>273513</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>342487</v>
+        <v>342993</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04542030923306196</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0406252536245698</v>
+        <v>0.04043132197463876</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05062728331729067</v>
+        <v>0.05070197969877761</v>
       </c>
     </row>
     <row r="37">
@@ -5993,19 +5993,19 @@
         <v>153475</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>131173</v>
+        <v>129320</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>178044</v>
+        <v>178293</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3104965152706325</v>
+        <v>0.3104965152706324</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2653767028158708</v>
+        <v>0.2616281033176974</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.360202207573294</v>
+        <v>0.3607051253445325</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>184</v>
@@ -6014,19 +6014,19 @@
         <v>136292</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>117929</v>
+        <v>118308</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>156397</v>
+        <v>155774</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2209644683438809</v>
+        <v>0.2209644683438808</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1911932296624615</v>
+        <v>0.1918074404901972</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2535594339805987</v>
+        <v>0.2525490954783617</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>312</v>
@@ -6035,19 +6035,19 @@
         <v>289767</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>259632</v>
+        <v>260723</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>322834</v>
+        <v>322716</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2607943311856829</v>
+        <v>0.2607943311856828</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.23367190477354</v>
+        <v>0.2346537104005301</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2905548364944432</v>
+        <v>0.2904483575360067</v>
       </c>
     </row>
     <row r="5">
@@ -6064,19 +6064,19 @@
         <v>149176</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>128916</v>
+        <v>129916</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>173204</v>
+        <v>173950</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3017977014991991</v>
+        <v>0.3017977014991992</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2608095839575534</v>
+        <v>0.262832822412103</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3504104566293075</v>
+        <v>0.3519189978804971</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>299</v>
@@ -6085,19 +6085,19 @@
         <v>218663</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>197808</v>
+        <v>198078</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>240098</v>
+        <v>241070</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3545085651939366</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3206971447357489</v>
+        <v>0.3211362878758907</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.389261058184633</v>
+        <v>0.3908372940916348</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>439</v>
@@ -6106,19 +6106,19 @@
         <v>367838</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>335302</v>
+        <v>335461</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>398568</v>
+        <v>397307</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3310592356711575</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3017761533679975</v>
+        <v>0.3019192877089964</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3587167798115377</v>
+        <v>0.3575818234058464</v>
       </c>
     </row>
     <row r="6">
@@ -6135,19 +6135,19 @@
         <v>141463</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>121317</v>
+        <v>119065</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>163653</v>
+        <v>163674</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2861951427343182</v>
+        <v>0.2861951427343183</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2454377839003434</v>
+        <v>0.2408816126206771</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3310860637105993</v>
+        <v>0.3311296194431756</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>249</v>
@@ -6156,19 +6156,19 @@
         <v>175149</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>154728</v>
+        <v>155334</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>194138</v>
+        <v>195106</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2839620509563332</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2508540560830358</v>
+        <v>0.2518358381406145</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3147475041886114</v>
+        <v>0.3163166999170229</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>382</v>
@@ -6177,19 +6177,19 @@
         <v>316613</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>282963</v>
+        <v>289384</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>347990</v>
+        <v>348666</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2849554800388054</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.254670007915594</v>
+        <v>0.2604493181062699</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.313195847819023</v>
+        <v>0.3138036527348804</v>
       </c>
     </row>
     <row r="7">
@@ -6206,19 +6206,19 @@
         <v>36195</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25940</v>
+        <v>25777</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50484</v>
+        <v>50773</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.07322644640877241</v>
+        <v>0.07322644640877242</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05247921323863448</v>
+        <v>0.05214988991502564</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1021349113672341</v>
+        <v>0.1027190004776416</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>84</v>
@@ -6227,19 +6227,19 @@
         <v>63807</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51178</v>
+        <v>49649</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>81877</v>
+        <v>79488</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1034475973356766</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08297254971087159</v>
+        <v>0.08049452762880319</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1327435123164093</v>
+        <v>0.1288713362451838</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>119</v>
@@ -6248,19 +6248,19 @@
         <v>100002</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>82758</v>
+        <v>83935</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>121346</v>
+        <v>122450</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09000320130478082</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07448372375448566</v>
+        <v>0.07554230768411015</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1092127876635491</v>
+        <v>0.1102065343729454</v>
       </c>
     </row>
     <row r="8">
@@ -6277,19 +6277,19 @@
         <v>11127</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6354</v>
+        <v>5851</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19541</v>
+        <v>18265</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02251106082483306</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01285381024034183</v>
+        <v>0.01183691464725285</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0395325668860065</v>
+        <v>0.03695269703537019</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>27</v>
@@ -6298,19 +6298,19 @@
         <v>20347</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13236</v>
+        <v>13738</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30554</v>
+        <v>32399</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.03298701567547793</v>
+        <v>0.03298701567547792</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02145947156923404</v>
+        <v>0.02227332114416085</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04953559529891497</v>
+        <v>0.05252641279853309</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>40</v>
@@ -6319,19 +6319,19 @@
         <v>31474</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>23049</v>
+        <v>22647</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>44029</v>
+        <v>42648</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02832660793142776</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02074413596425376</v>
+        <v>0.02038245115786628</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03962636041295808</v>
+        <v>0.0383838005167178</v>
       </c>
     </row>
     <row r="9">
@@ -6348,19 +6348,19 @@
         <v>2854</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8307</v>
+        <v>9475</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.005773133262244701</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0012245505527844</v>
+        <v>0.001255231747846638</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01680601182640912</v>
+        <v>0.0191696928398681</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -6369,19 +6369,19 @@
         <v>2548</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6278</v>
+        <v>6438</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.004130302494694685</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001036040255757271</v>
+        <v>0.00105273335372756</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01017757534069872</v>
+        <v>0.01043750411996578</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -6390,19 +6390,19 @@
         <v>5401</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2007</v>
+        <v>2291</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>11586</v>
+        <v>11530</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.004861143868145495</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.00180592365716846</v>
+        <v>0.002062032098091259</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01042743405757713</v>
+        <v>0.01037692046640278</v>
       </c>
     </row>
     <row r="10">
@@ -6494,19 +6494,19 @@
         <v>239838</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>208000</v>
+        <v>210314</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>271430</v>
+        <v>270229</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2506080943994939</v>
+        <v>0.2506080943994938</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2173408890927598</v>
+        <v>0.2197584329638084</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2836183248682588</v>
+        <v>0.2823637206990653</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>288</v>
@@ -6515,19 +6515,19 @@
         <v>202525</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>180354</v>
+        <v>181326</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>225145</v>
+        <v>224807</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.182473425907438</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1624974850740468</v>
+        <v>0.1633734856587137</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.20285461422575</v>
+        <v>0.2025493824325402</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>496</v>
@@ -6536,19 +6536,19 @@
         <v>442362</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>405079</v>
+        <v>403898</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>480317</v>
+        <v>482148</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2140212558986882</v>
+        <v>0.2140212558986881</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.195982960189033</v>
+        <v>0.1954117109407571</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2323840566819472</v>
+        <v>0.2332701228916032</v>
       </c>
     </row>
     <row r="12">
@@ -6565,19 +6565,19 @@
         <v>379947</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>348151</v>
+        <v>344621</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>416747</v>
+        <v>413866</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3970088130822404</v>
+        <v>0.3970088130822403</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.363785543075502</v>
+        <v>0.3600963875431354</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4354611461825303</v>
+        <v>0.432451151452757</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>607</v>
@@ -6586,19 +6586,19 @@
         <v>412340</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>384421</v>
+        <v>386974</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>440626</v>
+        <v>443984</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3715155706465436</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3463606852372746</v>
+        <v>0.3486609195338752</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3970016484974787</v>
+        <v>0.4000266602095068</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>965</v>
@@ -6607,19 +6607,19 @@
         <v>792287</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>749881</v>
+        <v>752516</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>839825</v>
+        <v>837950</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3833194950815888</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3628030645727932</v>
+        <v>0.3640777908745224</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4063190575788864</v>
+        <v>0.4054120962785618</v>
       </c>
     </row>
     <row r="13">
@@ -6636,19 +6636,19 @@
         <v>255916</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>228168</v>
+        <v>226681</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>287317</v>
+        <v>285689</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2674080126019141</v>
+        <v>0.267408012601914</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2384143727626501</v>
+        <v>0.2368606550517097</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3002187856214283</v>
+        <v>0.2985179416960133</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>473</v>
@@ -6657,19 +6657,19 @@
         <v>333351</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>306305</v>
+        <v>309459</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>360396</v>
+        <v>364016</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3003474131893629</v>
+        <v>0.3003474131893628</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2759786432456956</v>
+        <v>0.2788210138636262</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3247144899766528</v>
+        <v>0.3279762152058493</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>728</v>
@@ -6678,19 +6678,19 @@
         <v>589267</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>552567</v>
+        <v>552176</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>632771</v>
+        <v>633285</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2850957559531105</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2673397062145627</v>
+        <v>0.26715046764767</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.306143815090539</v>
+        <v>0.3063922295974404</v>
       </c>
     </row>
     <row r="14">
@@ -6707,19 +6707,19 @@
         <v>66318</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>50210</v>
+        <v>51110</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>87551</v>
+        <v>89282</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06929645680291595</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05246448675226111</v>
+        <v>0.05340462471656343</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09148239413246192</v>
+        <v>0.09329140108464008</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>180</v>
@@ -6728,19 +6728,19 @@
         <v>126563</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>108457</v>
+        <v>107076</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>146727</v>
+        <v>146685</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1140321596898257</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09771936499203397</v>
+        <v>0.09647454763730377</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1322005437028975</v>
+        <v>0.1321625506914129</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>245</v>
@@ -6749,19 +6749,19 @@
         <v>192881</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>167760</v>
+        <v>167948</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>222593</v>
+        <v>219417</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.09331855851658657</v>
+        <v>0.09331855851658659</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08116490731552128</v>
+        <v>0.08125560954130509</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1076936558156704</v>
+        <v>0.1061570015550565</v>
       </c>
     </row>
     <row r="15">
@@ -6778,19 +6778,19 @@
         <v>14149</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8492</v>
+        <v>8542</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>22103</v>
+        <v>21768</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.01478424808560864</v>
+        <v>0.01478424808560863</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.008873799124802051</v>
+        <v>0.00892509601087324</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02309586809454703</v>
+        <v>0.0227451552331419</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>44</v>
@@ -6799,19 +6799,19 @@
         <v>32447</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>23061</v>
+        <v>23586</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>45441</v>
+        <v>45965</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02923451372454385</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02077810502286385</v>
+        <v>0.02125042388986301</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04094243344669399</v>
+        <v>0.04141444865540559</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>63</v>
@@ -6820,19 +6820,19 @@
         <v>46596</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>35243</v>
+        <v>36189</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>60857</v>
+        <v>61801</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02254372717204621</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01705098791049918</v>
+        <v>0.01750872891189001</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02944353611111937</v>
+        <v>0.02990043630232234</v>
       </c>
     </row>
     <row r="16">
@@ -6852,16 +6852,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3979</v>
+        <v>5109</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0008943750278271748</v>
+        <v>0.0008943750278271747</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.004157732906610761</v>
+        <v>0.005338402423033718</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -6870,19 +6870,19 @@
         <v>2660</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7922</v>
+        <v>6895</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002396916842286056</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0005937043979670522</v>
+        <v>0.0005848468568448804</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.007137455061887438</v>
+        <v>0.00621272761809633</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -6891,19 +6891,19 @@
         <v>3516</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>860</v>
+        <v>913</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8502</v>
+        <v>8383</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001701207377979788</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.000416109042147737</v>
+        <v>0.0004419393783604338</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.004113493314956174</v>
+        <v>0.004055822215380135</v>
       </c>
     </row>
     <row r="17">
@@ -6995,19 +6995,19 @@
         <v>296000</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>266162</v>
+        <v>263919</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>329098</v>
+        <v>332309</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2830350788244412</v>
+        <v>0.2830350788244411</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2545041376488621</v>
+        <v>0.2523588333631889</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3146826092552459</v>
+        <v>0.3177536893131098</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>307</v>
@@ -7016,19 +7016,19 @@
         <v>216297</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>192864</v>
+        <v>194737</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>239367</v>
+        <v>240369</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2068169957053319</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1844110700813917</v>
+        <v>0.1862023656623571</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2288763059742822</v>
+        <v>0.2298341249512445</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>578</v>
@@ -7037,19 +7037,19 @@
         <v>512297</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>474700</v>
+        <v>474074</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>553719</v>
+        <v>557696</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.244925519950292</v>
+        <v>0.2449255199502919</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2269507261100494</v>
+        <v>0.2266516769983774</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2647294231466933</v>
+        <v>0.2666307975129416</v>
       </c>
     </row>
     <row r="19">
@@ -7066,19 +7066,19 @@
         <v>366159</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>332308</v>
+        <v>331655</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>398083</v>
+        <v>398981</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3501204272642087</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3177523690958973</v>
+        <v>0.3171279582340467</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3806467597774553</v>
+        <v>0.3815054075835235</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>524</v>
@@ -7087,19 +7087,19 @@
         <v>370182</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>341427</v>
+        <v>344015</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>396546</v>
+        <v>397355</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3539579781876335</v>
+        <v>0.3539579781876334</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3264629822526831</v>
+        <v>0.3289381624532381</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3791660704045713</v>
+        <v>0.379939984416409</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>884</v>
@@ -7108,19 +7108,19 @@
         <v>736340</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>692449</v>
+        <v>691634</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>778757</v>
+        <v>778561</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3520392287725103</v>
+        <v>0.3520392287725102</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3310550410774113</v>
+        <v>0.3306655910473857</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3723182169448733</v>
+        <v>0.3722245706915947</v>
       </c>
     </row>
     <row r="20">
@@ -7137,19 +7137,19 @@
         <v>287668</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>256919</v>
+        <v>258784</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>316934</v>
+        <v>316959</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2750679636286442</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2456654924552993</v>
+        <v>0.2474485285149776</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3030514276740857</v>
+        <v>0.3030760495824749</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>429</v>
@@ -7158,19 +7158,19 @@
         <v>286313</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>260905</v>
+        <v>259562</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>310587</v>
+        <v>309280</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2737648006987865</v>
+        <v>0.2737648006987864</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2494707448552443</v>
+        <v>0.2481860201332668</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2969745525720577</v>
+        <v>0.2957251102162586</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>720</v>
@@ -7179,19 +7179,19 @@
         <v>573981</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>535898</v>
+        <v>532602</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>616102</v>
+        <v>611928</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2744163733187645</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2562091610684418</v>
+        <v>0.2546334216997273</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2945542536147833</v>
+        <v>0.2925586292663118</v>
       </c>
     </row>
     <row r="21">
@@ -7208,19 +7208,19 @@
         <v>77277</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>64301</v>
+        <v>62056</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>95931</v>
+        <v>96587</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07389195763484289</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06148427323406744</v>
+        <v>0.0593375046925641</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09172868636077096</v>
+        <v>0.09235587162802485</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>195</v>
@@ -7229,19 +7229,19 @@
         <v>134180</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>116387</v>
+        <v>115824</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>154267</v>
+        <v>155514</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1282995504922511</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1112862349996181</v>
+        <v>0.1107476198241453</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1475058406949795</v>
+        <v>0.1486979163289623</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>281</v>
@@ -7250,19 +7250,19 @@
         <v>211457</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>186864</v>
+        <v>187539</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>238343</v>
+        <v>237677</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1010961233439158</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08933859970117369</v>
+        <v>0.08966111193260404</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1139500987819128</v>
+        <v>0.1136315994467503</v>
       </c>
     </row>
     <row r="22">
@@ -7279,19 +7279,19 @@
         <v>16845</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10144</v>
+        <v>9900</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26612</v>
+        <v>26615</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01610681921208361</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009700076381447351</v>
+        <v>0.009465937911823914</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02544590323227086</v>
+        <v>0.02544914209919807</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>49</v>
@@ -7300,19 +7300,19 @@
         <v>33322</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24464</v>
+        <v>24719</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>43364</v>
+        <v>43203</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.03186162730967569</v>
+        <v>0.03186162730967568</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02339158146716568</v>
+        <v>0.0236353332803531</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04146346365664712</v>
+        <v>0.04130946252552245</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>67</v>
@@ -7321,19 +7321,19 @@
         <v>50167</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>39944</v>
+        <v>38492</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>64604</v>
+        <v>63788</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02398433019340577</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01909697900829902</v>
+        <v>0.01840284477953446</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03088679576220642</v>
+        <v>0.03049661269261423</v>
       </c>
     </row>
     <row r="23">
@@ -7353,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6461</v>
+        <v>6762</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.001777753435779458</v>
@@ -7362,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.00617788746469186</v>
+        <v>0.006465589177981062</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -7371,19 +7371,19 @@
         <v>5542</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2535</v>
+        <v>2543</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11203</v>
+        <v>11024</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.005299047606321335</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002423776789082165</v>
+        <v>0.002431762337177576</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01071194943793038</v>
+        <v>0.01054129837817877</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>10</v>
@@ -7392,19 +7392,19 @@
         <v>7401</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3687</v>
+        <v>3643</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>13490</v>
+        <v>14023</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.003538424421111797</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001762890638028625</v>
+        <v>0.00174152278624937</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.006449524175792435</v>
+        <v>0.00670412820574945</v>
       </c>
     </row>
     <row r="24">
@@ -7496,19 +7496,19 @@
         <v>342484</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>309251</v>
+        <v>309339</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>378894</v>
+        <v>375630</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3524052985845431</v>
+        <v>0.3524052985845432</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3182097409876782</v>
+        <v>0.3183002436077759</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3898701576623246</v>
+        <v>0.3865118738728437</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>296</v>
@@ -7517,19 +7517,19 @@
         <v>223163</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>200606</v>
+        <v>199977</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>246659</v>
+        <v>248105</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2471702246738273</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2221860802498906</v>
+        <v>0.2214904104073471</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2731933733805664</v>
+        <v>0.2747949931204433</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>578</v>
@@ -7538,19 +7538,19 @@
         <v>565647</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>519546</v>
+        <v>524168</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>608063</v>
+        <v>608710</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3017236546673641</v>
+        <v>0.3017236546673642</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2771326194607366</v>
+        <v>0.279598286211194</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3243487422341492</v>
+        <v>0.3246937573061801</v>
       </c>
     </row>
     <row r="26">
@@ -7567,19 +7567,19 @@
         <v>325829</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>292912</v>
+        <v>295306</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>356705</v>
+        <v>359682</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3352677242804263</v>
+        <v>0.3352677242804265</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3013970158377148</v>
+        <v>0.3038607994908772</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3670385518690428</v>
+        <v>0.3701017192574921</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>442</v>
@@ -7588,19 +7588,19 @@
         <v>291654</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>265370</v>
+        <v>268932</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>317654</v>
+        <v>317026</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3230293559991472</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2939171671999187</v>
+        <v>0.2978628568731582</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3518259584381159</v>
+        <v>0.3511302540752652</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>775</v>
@@ -7609,19 +7609,19 @@
         <v>617483</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>576960</v>
+        <v>576800</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>656557</v>
+        <v>662220</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3293736758390737</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3077579090667559</v>
+        <v>0.3076727566405615</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3502162018950674</v>
+        <v>0.353236700119906</v>
       </c>
     </row>
     <row r="27">
@@ -7638,19 +7638,19 @@
         <v>193568</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>168732</v>
+        <v>169265</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>220451</v>
+        <v>220962</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1991753522202837</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1736195759225538</v>
+        <v>0.1741688076520829</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.22683758024335</v>
+        <v>0.2273634286216824</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>351</v>
@@ -7659,19 +7659,19 @@
         <v>227003</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>206291</v>
+        <v>203159</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>251928</v>
+        <v>251345</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2514227520293216</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2284829648348118</v>
+        <v>0.2250136365149576</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2790300902362658</v>
+        <v>0.2783835880087412</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>563</v>
@@ -7680,19 +7680,19 @@
         <v>420571</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>387504</v>
+        <v>387975</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>457527</v>
+        <v>456241</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2243379146086255</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2066996393267967</v>
+        <v>0.2069508907117559</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2440512118904844</v>
+        <v>0.2433647842728473</v>
       </c>
     </row>
     <row r="28">
@@ -7709,19 +7709,19 @@
         <v>88375</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>70236</v>
+        <v>70532</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>107541</v>
+        <v>107670</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.09093506523122763</v>
+        <v>0.09093506523122766</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07227063512652224</v>
+        <v>0.07257566788078859</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1106560752112177</v>
+        <v>0.1107893604805194</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>184</v>
@@ -7730,19 +7730,19 @@
         <v>129780</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>112043</v>
+        <v>111392</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>148969</v>
+        <v>150583</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.1437408172411549</v>
+        <v>0.143740817241155</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1240958560377065</v>
+        <v>0.1233748866940646</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1649949039827633</v>
+        <v>0.1667826329801639</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>276</v>
@@ -7751,19 +7751,19 @@
         <v>218155</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>193754</v>
+        <v>191200</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>244063</v>
+        <v>245891</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.116366532333314</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1033512217474675</v>
+        <v>0.1019886340289394</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1301866920965859</v>
+        <v>0.1311612792001922</v>
       </c>
     </row>
     <row r="29">
@@ -7780,19 +7780,19 @@
         <v>17037</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10401</v>
+        <v>9634</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>28393</v>
+        <v>28317</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01753050806194462</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01070260656694402</v>
+        <v>0.009912697190311402</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02921499349647685</v>
+        <v>0.02913764158175916</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>41</v>
@@ -7801,19 +7801,19 @@
         <v>30180</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>21199</v>
+        <v>21649</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>42144</v>
+        <v>42405</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03342711959203946</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02347928137447881</v>
+        <v>0.02397780904760421</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04667793205683859</v>
+        <v>0.0469669922876363</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>59</v>
@@ -7822,19 +7822,19 @@
         <v>47217</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>35601</v>
+        <v>35393</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>63888</v>
+        <v>61787</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.02518638148054968</v>
+        <v>0.02518638148054969</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01899003010053129</v>
+        <v>0.01887916584188455</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03407862463557892</v>
+        <v>0.03295804627311734</v>
       </c>
     </row>
     <row r="30">
@@ -7851,19 +7851,19 @@
         <v>4554</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1458</v>
+        <v>1495</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10340</v>
+        <v>10375</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.004686051621574448</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.001499988663284241</v>
+        <v>0.001537932273820307</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01063907549655431</v>
+        <v>0.0106756560187946</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -7875,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4076</v>
+        <v>3772</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.00120973046450944</v>
@@ -7884,7 +7884,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.004514472276130929</v>
+        <v>0.004177574217720107</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>7</v>
@@ -7893,19 +7893,19 @@
         <v>5646</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2578</v>
+        <v>2654</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>12679</v>
+        <v>11431</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.003011841071072959</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.001375263167604228</v>
+        <v>0.001415655040105142</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.006762940511611115</v>
+        <v>0.006097228551818593</v>
       </c>
     </row>
     <row r="31">
@@ -7997,19 +7997,19 @@
         <v>1031797</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>970733</v>
+        <v>966222</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1089279</v>
+        <v>1092080</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2974364054897525</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2798333116946005</v>
+        <v>0.2785329773297605</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3140068039628491</v>
+        <v>0.3148141678935697</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1075</v>
@@ -8018,19 +8018,19 @@
         <v>778276</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>732813</v>
+        <v>732933</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>822951</v>
+        <v>822999</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2117529198075551</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1993833309305408</v>
+        <v>0.1994157723165366</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2239078474305738</v>
+        <v>0.2239211162908147</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1964</v>
@@ -8039,19 +8039,19 @@
         <v>1810074</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1730512</v>
+        <v>1731783</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1895507</v>
+        <v>1884422</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2533567805612162</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2422205585013539</v>
+        <v>0.2423984451321655</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2653148920987641</v>
+        <v>0.2637633623608009</v>
       </c>
     </row>
     <row r="33">
@@ -8068,19 +8068,19 @@
         <v>1221110</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1157774</v>
+        <v>1159622</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1280661</v>
+        <v>1283980</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.3520095527318133</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3337517153485068</v>
+        <v>0.3342846489163634</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3691766035511905</v>
+        <v>0.3701331880931216</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1872</v>
@@ -8089,19 +8089,19 @@
         <v>1292839</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1237448</v>
+        <v>1237958</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1340259</v>
+        <v>1344890</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.3517546570177189</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.3366841250176275</v>
+        <v>0.3368228542351189</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3646568266614849</v>
+        <v>0.3659167881118561</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>3063</v>
@@ -8110,19 +8110,19 @@
         <v>2513948</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2431382</v>
+        <v>2432951</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>2598290</v>
+        <v>2601721</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.3518784223583963</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.3403216044899423</v>
+        <v>0.3405412632578533</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.3636837149944327</v>
+        <v>0.364164038309384</v>
       </c>
     </row>
     <row r="34">
@@ -8139,19 +8139,19 @@
         <v>878615</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>829505</v>
+        <v>823781</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>936937</v>
+        <v>930757</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2532785736330891</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2391216410197617</v>
+        <v>0.2374714325890095</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2700911395485827</v>
+        <v>0.2683094771551656</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1502</v>
@@ -8160,19 +8160,19 @@
         <v>1021816</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>975218</v>
+        <v>974149</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1078579</v>
+        <v>1072895</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.2780150457225131</v>
+        <v>0.278015045722513</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2653365437874208</v>
+        <v>0.2650456657933409</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2934590083905621</v>
+        <v>0.2919125653301169</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2393</v>
@@ -8181,19 +8181,19 @@
         <v>1900431</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1828800</v>
+        <v>1827306</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1981062</v>
+        <v>1979727</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2660041811766623</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2559779132624239</v>
+        <v>0.2557688673026777</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2772900719368226</v>
+        <v>0.2771033060526336</v>
       </c>
     </row>
     <row r="35">
@@ -8210,19 +8210,19 @@
         <v>268165</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>236804</v>
+        <v>233717</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>304803</v>
+        <v>302637</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.07730401886126279</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0682636711260539</v>
+        <v>0.06737377194441431</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0878656587647169</v>
+        <v>0.08724120204446414</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>643</v>
@@ -8231,19 +8231,19 @@
         <v>454330</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>417976</v>
+        <v>422501</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>487861</v>
+        <v>494648</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1236136669207356</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1137225131448037</v>
+        <v>0.1149537258363971</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1327368259803928</v>
+        <v>0.1345834878560029</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>921</v>
@@ -8252,19 +8252,19 @@
         <v>722495</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>673646</v>
+        <v>676612</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>773833</v>
+        <v>774492</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.101127885278245</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.09429050247242038</v>
+        <v>0.0947056939339183</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1083137443006644</v>
+        <v>0.1084059649064537</v>
       </c>
     </row>
     <row r="36">
@@ -8281,19 +8281,19 @@
         <v>59157</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>46313</v>
+        <v>45395</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>76771</v>
+        <v>75239</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01705333317617591</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01335052087811986</v>
+        <v>0.01308612126054789</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02213079144653214</v>
+        <v>0.02168909868602132</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>161</v>
@@ -8302,19 +8302,19 @@
         <v>116296</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>99180</v>
+        <v>98958</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>137176</v>
+        <v>139655</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0316417304347567</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02698482243403585</v>
+        <v>0.02692432356217942</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03732263936717461</v>
+        <v>0.03799724004822131</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>229</v>
@@ -8323,19 +8323,19 @@
         <v>175453</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>152528</v>
+        <v>151465</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>201938</v>
+        <v>198240</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02455829255483405</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02134947574578076</v>
+        <v>0.02120055872917646</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02826532549675677</v>
+        <v>0.02774770533452175</v>
       </c>
     </row>
     <row r="37">
@@ -8352,19 +8352,19 @@
         <v>10123</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>4949</v>
+        <v>5479</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>16927</v>
+        <v>18175</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.002918116107906366</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.001426770952988973</v>
+        <v>0.001579408078957636</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.004879554283731502</v>
+        <v>0.005239407437642281</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>17</v>
@@ -8373,19 +8373,19 @@
         <v>11842</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6891</v>
+        <v>6600</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>19091</v>
+        <v>18620</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.003221980096720634</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.001875007670574241</v>
+        <v>0.001795631638899923</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.005194350749120539</v>
+        <v>0.005066172890026702</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>28</v>
@@ -8394,19 +8394,19 @@
         <v>21965</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>15136</v>
+        <v>15182</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>31775</v>
+        <v>32795</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.003074438070646088</v>
+        <v>0.003074438070646087</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.002118550135764482</v>
+        <v>0.002125012514307513</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.00444761549683282</v>
+        <v>0.004590373334256617</v>
       </c>
     </row>
     <row r="38">
